--- a/data/allDataColumnForm.xlsx
+++ b/data/allDataColumnForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\2021年3月4日-竞赛系统测试\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C6027D-E396-4D95-84C1-98499187C918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8C4C0-5050-405D-A788-AA6B64B0AAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A28E49BB-32FC-4833-B9E4-45BF3E664ABE}"/>
   </bookViews>
@@ -653,7 +653,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
   <si>
     <t>Id</t>
   </si>
@@ -1121,21 +1121,25 @@
   </si>
   <si>
     <t>mission</t>
-  </si>
-  <si>
-    <t>mission</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PosY</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheBeiNeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackArea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,8 +1222,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1283,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1721,7 +1739,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1766,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="14"/>
       <c r="G1" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="16"/>
     </row>
@@ -1896,7 +1914,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>93</v>
@@ -1930,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>81</v>
@@ -2063,8 +2081,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>146</v>
+      <c r="A21" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
